--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4781,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5655,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6157,12 +6157,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7259,12 +7259,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7415,12 +7415,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7453,12 +7453,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
